--- a/CoursesFinal.xlsx
+++ b/CoursesFinal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fence\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ad593f627d6d819/Documents/GitHub/CoursesSummative/src/main/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7AAE9D5-A8ED-45BB-AB5E-4B5A1A79E7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{A7AAE9D5-A8ED-45BB-AB5E-4B5A1A79E7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{941A9533-B617-4C10-88B5-2BFAA30B0F2B}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="15555" windowHeight="16305" xr2:uid="{4B1F999D-2B31-4EBB-86BB-F68812B9D625}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="8205" xr2:uid="{4B1F999D-2B31-4EBB-86BB-F68812B9D625}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="311">
   <si>
     <t>Course Name</t>
   </si>
@@ -882,6 +882,93 @@
   </si>
   <si>
     <t>spanish, language</t>
+  </si>
+  <si>
+    <t>ENL1W</t>
+  </si>
+  <si>
+    <t>English Grade 9</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>NBE3U</t>
+  </si>
+  <si>
+    <t>ENG4U</t>
+  </si>
+  <si>
+    <t>English Grade 10</t>
+  </si>
+  <si>
+    <t>English Grade 12</t>
+  </si>
+  <si>
+    <t>English Grade 11 - Understanding Contemporary First Nations, Métis, and Inuit Voices</t>
+  </si>
+  <si>
+    <t>NBE3C</t>
+  </si>
+  <si>
+    <t>ENG4C</t>
+  </si>
+  <si>
+    <t>MTH1W</t>
+  </si>
+  <si>
+    <t>Grade 9 Mathematics</t>
+  </si>
+  <si>
+    <t>Grade 10 Mathematics</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>SNC1W</t>
+  </si>
+  <si>
+    <t>Grade 9 Science</t>
+  </si>
+  <si>
+    <t>Grade 10 Science</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>CGC1W</t>
+  </si>
+  <si>
+    <t>Geography of Canada</t>
+  </si>
+  <si>
+    <t>canadian geography</t>
+  </si>
+  <si>
+    <t>Canadian Geography</t>
+  </si>
+  <si>
+    <t>CHC2D</t>
+  </si>
+  <si>
+    <t>CHV2O</t>
+  </si>
+  <si>
+    <t>Canadian History</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>Civics and Careers</t>
+  </si>
+  <si>
+    <t>civics and careers</t>
   </si>
 </sst>
 </file>
@@ -912,7 +999,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -931,6 +1018,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -944,7 +1037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -967,6 +1060,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,6 +1081,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1303,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D51743-F100-4C15-8601-ED56FE5360A4}">
   <dimension ref="A1:T264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3933,82 +4036,82 @@
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="9">
+        <v>11</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F87" s="9">
         <v>12</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J86" s="4"/>
-    </row>
-    <row r="87" spans="1:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D87" s="4" t="s">
+      <c r="G87" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E88" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F88" s="9">
         <v>12</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H87" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J87" s="4"/>
-    </row>
-    <row r="88" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F88" s="4">
-        <v>12</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H88" s="4" t="s">
+      <c r="H88" s="9" t="s">
         <v>107</v>
       </c>
       <c r="J88" s="4"/>
@@ -4725,7 +4828,347 @@
         <v>107</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F116" s="4">
+        <v>9</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F117" s="4">
+        <v>10</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F118" s="4">
+        <v>11</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F119" s="4">
+        <v>12</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F120" s="1">
+        <v>11</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F121" s="1">
+        <v>12</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F122" s="1">
+        <v>9</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F123" s="1">
+        <v>10</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F124" s="1">
+        <v>11</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F125" s="1">
+        <v>9</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F126" s="1">
+        <v>10</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F127" s="1">
+        <v>9</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F128" s="1">
+        <v>10</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F129" s="1">
+        <v>10</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">

--- a/CoursesFinal.xlsx
+++ b/CoursesFinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ad593f627d6d819/Documents/GitHub/CoursesSummative/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="8_{A7AAE9D5-A8ED-45BB-AB5E-4B5A1A79E7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2882026-99ED-4DBC-9D67-D64A507128EE}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{A7AAE9D5-A8ED-45BB-AB5E-4B5A1A79E7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E65D595-C557-4EE8-8D2A-87F7D8CD2044}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4B1F999D-2B31-4EBB-86BB-F68812B9D625}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="298">
   <si>
     <t>Course Name</t>
   </si>
@@ -497,12 +497,6 @@
     <t>Mathematics</t>
   </si>
   <si>
-    <t>Foundations for College Mathematics</t>
-  </si>
-  <si>
-    <t>MAP4C</t>
-  </si>
-  <si>
     <t>MHF4U</t>
   </si>
   <si>
@@ -515,27 +509,6 @@
     <t>Calculus and Vectors</t>
   </si>
   <si>
-    <t>MDM4U</t>
-  </si>
-  <si>
-    <t>Mathematics of Data Management</t>
-  </si>
-  <si>
-    <t>MCT4C</t>
-  </si>
-  <si>
-    <t>Mathematics for College Technology</t>
-  </si>
-  <si>
-    <t>MEL3E</t>
-  </si>
-  <si>
-    <t>Mathematics for Work and Everyday Life</t>
-  </si>
-  <si>
-    <t>MEL4E</t>
-  </si>
-  <si>
     <t>Science</t>
   </si>
   <si>
@@ -653,12 +626,6 @@
     <t>calculus, vectors, mathematical modeling, math</t>
   </si>
   <si>
-    <t>mathematics, technology, applications in technological contexts, math</t>
-  </si>
-  <si>
-    <t>mathematics, practical applications, financial literacy, math</t>
-  </si>
-  <si>
     <t>Graduation Requirement</t>
   </si>
   <si>
@@ -810,12 +777,6 @@
   </si>
   <si>
     <t>exercise, science, physiology, anatomy, biomechanics, research, performance</t>
-  </si>
-  <si>
-    <t>mathematics, foundations, algebra, geometry, statistics, problem-solving, applications, math</t>
-  </si>
-  <si>
-    <t>mathematics, data, management, statistics, probability, analysis, modeling</t>
   </si>
   <si>
     <t>Biology</t>
@@ -1007,7 +968,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1032,6 +993,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1045,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1073,6 +1040,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1410,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D51743-F100-4C15-8601-ED56FE5360A4}">
   <dimension ref="A1:T264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1"/>
@@ -1460,13 +1430,13 @@
     </row>
     <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -1496,7 +1466,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
@@ -1526,7 +1496,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -1556,7 +1526,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1586,7 +1556,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -1616,7 +1586,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -1646,7 +1616,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -1676,7 +1646,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -1698,7 +1668,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -1706,7 +1676,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
@@ -1728,7 +1698,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -1736,7 +1706,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>28</v>
@@ -1758,7 +1728,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -1766,7 +1736,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -1788,7 +1758,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -1796,7 +1766,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
@@ -1826,7 +1796,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
@@ -1856,7 +1826,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
@@ -1878,7 +1848,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
@@ -1886,7 +1856,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
@@ -1916,7 +1886,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
@@ -1946,7 +1916,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>53</v>
@@ -1968,7 +1938,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
@@ -1976,7 +1946,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>46</v>
@@ -1998,7 +1968,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
@@ -2006,7 +1976,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>46</v>
@@ -2028,7 +1998,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>51</v>
       </c>
@@ -2036,7 +2006,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>46</v>
@@ -2058,7 +2028,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>54</v>
       </c>
@@ -2066,7 +2036,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>53</v>
@@ -2088,7 +2058,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>56</v>
       </c>
@@ -2096,7 +2066,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>53</v>
@@ -2118,7 +2088,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
@@ -2126,7 +2096,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>53</v>
@@ -2148,7 +2118,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>59</v>
       </c>
@@ -2156,7 +2126,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>53</v>
@@ -2186,7 +2156,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>53</v>
@@ -2216,7 +2186,7 @@
         <v>61</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>53</v>
@@ -2246,7 +2216,7 @@
         <v>61</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>53</v>
@@ -2276,7 +2246,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>53</v>
@@ -2306,7 +2276,7 @@
         <v>65</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>53</v>
@@ -2336,7 +2306,7 @@
         <v>65</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>53</v>
@@ -2366,7 +2336,7 @@
         <v>69</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>53</v>
@@ -2396,7 +2366,7 @@
         <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>53</v>
@@ -2426,7 +2396,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>53</v>
@@ -2448,7 +2418,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>74</v>
       </c>
@@ -2456,13 +2426,13 @@
         <v>75</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F35" s="3">
         <v>12</v>
@@ -2483,10 +2453,10 @@
         <v>77</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>78</v>
@@ -2513,10 +2483,10 @@
         <v>79</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>78</v>
@@ -2543,10 +2513,10 @@
         <v>80</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>78</v>
@@ -2573,10 +2543,10 @@
         <v>81</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>78</v>
@@ -2606,7 +2576,7 @@
         <v>83</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>78</v>
@@ -2628,7 +2598,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>84</v>
       </c>
@@ -2636,7 +2606,7 @@
         <v>85</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>78</v>
@@ -2658,7 +2628,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>86</v>
       </c>
@@ -2666,7 +2636,7 @@
         <v>87</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>78</v>
@@ -2696,7 +2666,7 @@
         <v>89</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>78</v>
@@ -2718,7 +2688,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>90</v>
       </c>
@@ -2753,10 +2723,10 @@
         <v>93</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>78</v>
@@ -2783,10 +2753,10 @@
         <v>94</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>78</v>
@@ -2813,10 +2783,10 @@
         <v>95</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>78</v>
@@ -2843,10 +2813,10 @@
         <v>96</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>78</v>
@@ -2873,10 +2843,10 @@
         <v>97</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>78</v>
@@ -2903,10 +2873,10 @@
         <v>98</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>78</v>
@@ -2933,10 +2903,10 @@
         <v>99</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>78</v>
@@ -2963,10 +2933,10 @@
         <v>100</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>78</v>
@@ -2996,7 +2966,7 @@
         <v>102</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>78</v>
@@ -3026,7 +2996,7 @@
         <v>102</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>78</v>
@@ -3056,7 +3026,7 @@
         <v>102</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>78</v>
@@ -3086,7 +3056,7 @@
         <v>106</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>78</v>
@@ -3113,10 +3083,10 @@
         <v>108</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>78</v>
@@ -3143,10 +3113,10 @@
         <v>109</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>78</v>
@@ -3173,10 +3143,10 @@
         <v>110</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>78</v>
@@ -3200,10 +3170,10 @@
         <v>111</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>78</v>
@@ -3222,7 +3192,7 @@
       </c>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>112</v>
       </c>
@@ -3230,7 +3200,7 @@
         <v>113</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>78</v>
@@ -3249,7 +3219,7 @@
       </c>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>114</v>
       </c>
@@ -3257,7 +3227,7 @@
         <v>113</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>78</v>
@@ -3276,7 +3246,7 @@
       </c>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>115</v>
       </c>
@@ -3284,7 +3254,7 @@
         <v>113</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>78</v>
@@ -3303,7 +3273,7 @@
       </c>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>116</v>
       </c>
@@ -3311,7 +3281,7 @@
         <v>117</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>78</v>
@@ -3330,7 +3300,7 @@
       </c>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>118</v>
       </c>
@@ -3338,7 +3308,7 @@
         <v>117</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>78</v>
@@ -3365,7 +3335,7 @@
         <v>120</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>78</v>
@@ -3392,7 +3362,7 @@
         <v>120</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>78</v>
@@ -3419,7 +3389,7 @@
         <v>123</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>78</v>
@@ -3438,7 +3408,7 @@
       </c>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>126</v>
       </c>
@@ -3446,7 +3416,7 @@
         <v>127</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>125</v>
@@ -3473,7 +3443,7 @@
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>128</v>
       </c>
@@ -3481,7 +3451,7 @@
         <v>127</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>125</v>
@@ -3509,7 +3479,7 @@
       <c r="S70" s="3"/>
       <c r="T70"/>
     </row>
-    <row r="71" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>130</v>
       </c>
@@ -3517,7 +3487,7 @@
         <v>127</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>125</v>
@@ -3545,7 +3515,7 @@
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
     </row>
-    <row r="72" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>132</v>
       </c>
@@ -3553,7 +3523,7 @@
         <v>124</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>125</v>
@@ -3581,7 +3551,7 @@
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
     </row>
-    <row r="73" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>133</v>
       </c>
@@ -3589,7 +3559,7 @@
         <v>127</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>125</v>
@@ -3617,7 +3587,7 @@
       <c r="S73" s="3"/>
       <c r="T73" s="3"/>
     </row>
-    <row r="74" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>134</v>
       </c>
@@ -3625,7 +3595,7 @@
         <v>124</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>125</v>
@@ -3653,7 +3623,7 @@
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
     </row>
-    <row r="75" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>135</v>
       </c>
@@ -3661,7 +3631,7 @@
         <v>127</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>125</v>
@@ -3697,7 +3667,7 @@
         <v>137</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>138</v>
@@ -3733,7 +3703,7 @@
         <v>137</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>138</v>
@@ -3769,7 +3739,7 @@
         <v>137</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>138</v>
@@ -3805,7 +3775,7 @@
         <v>137</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>138</v>
@@ -3833,7 +3803,7 @@
       <c r="S79" s="3"/>
       <c r="T79" s="3"/>
     </row>
-    <row r="80" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>142</v>
       </c>
@@ -3841,7 +3811,7 @@
         <v>143</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>138</v>
@@ -3877,7 +3847,7 @@
         <v>145</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>138</v>
@@ -3913,7 +3883,7 @@
         <v>145</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>138</v>
@@ -3949,7 +3919,7 @@
         <v>145</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>138</v>
@@ -3985,7 +3955,7 @@
         <v>149</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>138</v>
@@ -4012,7 +3982,7 @@
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
     </row>
-    <row r="85" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>150</v>
       </c>
@@ -4020,7 +3990,7 @@
         <v>151</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>138</v>
@@ -4037,35 +4007,58 @@
       <c r="H85" s="3">
         <v>3</v>
       </c>
+      <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-    </row>
-    <row r="86" spans="1:20" ht="210" x14ac:dyDescent="0.25">
-      <c r="J86" s="7" t="s">
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+    </row>
+    <row r="86" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="K86" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="M86" s="8" t="s">
+      <c r="C86" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="N86" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="O86" s="8">
-        <v>11</v>
-      </c>
-      <c r="P86" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q86" s="8" t="s">
+      <c r="E86" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F86" s="8">
+        <v>12</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+    </row>
+    <row r="87" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>155</v>
       </c>
@@ -4073,13 +4066,13 @@
         <v>156</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>152</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F87" s="8">
         <v>12</v>
@@ -4090,208 +4083,300 @@
       <c r="H87" s="8" t="s">
         <v>107</v>
       </c>
+      <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-    </row>
-    <row r="88" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+    </row>
+    <row r="88" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F88" s="8">
+      <c r="E88" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F88" s="3">
         <v>12</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H88" s="1">
+        <v>3</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+    </row>
+    <row r="89" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>11</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H88" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J88" s="3"/>
-    </row>
-    <row r="89" spans="1:20" ht="195" x14ac:dyDescent="0.25">
-      <c r="J89" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="K89" s="3" t="s">
+      <c r="H89" s="1">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+    </row>
+    <row r="90" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="F90" s="3">
         <v>12</v>
       </c>
-      <c r="P89" s="3" t="s">
+      <c r="G90" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="J90" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="K90" s="3" t="s">
+      <c r="H90" s="1">
+        <v>3</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="L90" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="M90" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N90" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="O90" s="3">
-        <v>12</v>
-      </c>
-      <c r="P90" s="3" t="s">
+      <c r="B91" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F91" s="3">
+        <v>11</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q90" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="J91" s="6" t="s">
+      <c r="H91" s="1">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+    </row>
+    <row r="92" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="B92" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F92" s="3">
+        <v>11</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H92" s="1">
+        <v>3</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+    </row>
+    <row r="93" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O91" s="3">
-        <v>11</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="J92" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N92" s="3" t="s">
+      <c r="B93" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="O92" s="3">
-        <v>12</v>
-      </c>
-      <c r="P92" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q92" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="F93" s="3">
         <v>12</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H93" s="1">
         <v>3</v>
       </c>
+      <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-    </row>
-    <row r="94" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+    </row>
+    <row r="94" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F94" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H94" s="1">
         <v>3</v>
       </c>
+      <c r="I94" s="3"/>
       <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
     </row>
     <row r="95" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="F95" s="3">
         <v>12</v>
@@ -4304,51 +4389,51 @@
       </c>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="F96" s="3">
         <v>11</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H96" s="1">
         <v>3</v>
       </c>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="F97" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>40</v>
@@ -4358,164 +4443,164 @@
       </c>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="F98" s="3">
         <v>12</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H98" s="1">
         <v>3</v>
       </c>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F99" s="3">
+        <v>10</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F99" s="3">
+      <c r="B100" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F100" s="3">
+        <v>11</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F101" s="3">
         <v>12</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H99" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F100" s="3">
-        <v>12</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H100" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F101" s="3">
-        <v>11</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H101" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>178</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>265</v>
+        <v>177</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F102" s="3">
         <v>12</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H102" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>179</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>265</v>
+        <v>180</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="F103" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H103" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>181</v>
       </c>
@@ -4523,7 +4608,7 @@
         <v>182</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>182</v>
@@ -4532,16 +4617,16 @@
         <v>107</v>
       </c>
       <c r="F104" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="H104" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>183</v>
       </c>
@@ -4549,42 +4634,42 @@
         <v>184</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="F105" s="3">
         <v>11</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="H105" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>185</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="F106" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>40</v>
@@ -4593,50 +4678,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="F107" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H107" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="D108" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F108" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>40</v>
@@ -4645,18 +4730,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>190</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>107</v>
@@ -4665,163 +4750,163 @@
         <v>12</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H109" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F110" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H110" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>194</v>
+        <v>76</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F111" s="3">
+        <v>9</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F112" s="3">
+        <v>10</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F113" s="3">
         <v>11</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H111" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F112" s="3">
-        <v>11</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H112" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F113" s="3">
-        <v>12</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H113" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
-        <v>199</v>
+      <c r="H113" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="F114" s="3">
         <v>12</v>
       </c>
       <c r="G114" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F115" s="1">
+        <v>11</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="H114" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F115" s="3">
-        <v>9</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>107</v>
@@ -4829,172 +4914,162 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F116" s="1">
+        <v>12</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H116" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F116" s="3">
+    </row>
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F117" s="1">
         <v>9</v>
       </c>
-      <c r="G116" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F117" s="3">
+      <c r="G117" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H117" s="10"/>
+    </row>
+    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F118" s="1">
         <v>10</v>
       </c>
-      <c r="G117" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F118" s="3">
-        <v>11</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="G118" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H118" s="10"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C119" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F119" s="1">
+        <v>11</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H119" s="10"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E119" s="3" t="s">
+      <c r="B120" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F119" s="3">
-        <v>12</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H119" s="3" t="s">
+      <c r="C120" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F120" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="H120" s="10"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C121" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="F121" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="H121" s="10"/>
     </row>
     <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>152</v>
+        <v>284</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>107</v>
@@ -5005,22 +5080,23 @@
       <c r="G122" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H122" s="10"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>152</v>
+        <v>287</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>285</v>
+        <v>107</v>
       </c>
       <c r="F123" s="1">
         <v>10</v>
@@ -5028,146 +5104,33 @@
       <c r="G123" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H123" s="10"/>
+    </row>
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C124" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="E124" s="1" t="s">
-        <v>209</v>
+        <v>107</v>
       </c>
       <c r="F124" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F125" s="1">
-        <v>9</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F126" s="1">
-        <v>10</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F127" s="1">
-        <v>9</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F128" s="1">
-        <v>10</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F129" s="1">
-        <v>10</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="H124" s="10"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
@@ -5537,21 +5500,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100962AEF5458354643B01AB483C27D3CE7" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e580259eb01ed83afbb9f9c94c4917f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="363a048f-a4db-4454-84cd-aeff436539b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5c6256e4731df10195077f570471999a" ns3:_="">
     <xsd:import namespace="363a048f-a4db-4454-84cd-aeff436539b2"/>
@@ -5689,10 +5637,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84CC88C3-0CB4-495D-9F44-C0C80956A6C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852E8167-9EFF-4695-B81D-D7CB7BB893A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="363a048f-a4db-4454-84cd-aeff436539b2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5714,19 +5687,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852E8167-9EFF-4695-B81D-D7CB7BB893A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84CC88C3-0CB4-495D-9F44-C0C80956A6C7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="363a048f-a4db-4454-84cd-aeff436539b2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CoursesFinal.xlsx
+++ b/CoursesFinal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6ad593f627d6d819/Documents/GitHub/CoursesSummative/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fence\Desktop\Computer Science\CoursesSummative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{A7AAE9D5-A8ED-45BB-AB5E-4B5A1A79E7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E65D595-C557-4EE8-8D2A-87F7D8CD2044}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D1E580-306E-4968-B036-44F3F32DDB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4B1F999D-2B31-4EBB-86BB-F68812B9D625}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4B1F999D-2B31-4EBB-86BB-F68812B9D625}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -668,9 +668,6 @@
     <t>money, planning, skills, responsibility, macro, micro, analysis, finance, economics</t>
   </si>
   <si>
-    <t>science, environment, earth, geography, emergency, resilience</t>
-  </si>
-  <si>
     <t>history, archaeology, culture, ancient, artifacts, society, architecture</t>
   </si>
   <si>
@@ -776,9 +773,6 @@
     <t>leadership, recreation, health, fitness</t>
   </si>
   <si>
-    <t>exercise, science, physiology, anatomy, biomechanics, research, performance</t>
-  </si>
-  <si>
     <t>Biology</t>
   </si>
   <si>
@@ -930,6 +924,12 @@
   </si>
   <si>
     <t>fitness, health, physical education, sports, wellness, exercise, nutrition</t>
+  </si>
+  <si>
+    <t>environment, earth, geography, emergency, resilience</t>
+  </si>
+  <si>
+    <t>exercise, physiology, anatomy, biomechanics, research, performance</t>
   </si>
 </sst>
 </file>
@@ -1380,25 +1380,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D51743-F100-4C15-8601-ED56FE5360A4}">
   <dimension ref="A1:T264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.453125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="37" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
@@ -1428,7 +1428,7 @@
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
@@ -1488,7 +1488,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -1668,7 +1668,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>210</v>
+        <v>296</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>28</v>
@@ -1728,7 +1728,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -1758,7 +1758,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
@@ -1788,7 +1788,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
@@ -1818,7 +1818,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
@@ -1848,7 +1848,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
@@ -1878,7 +1878,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
@@ -1908,7 +1908,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>43</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>53</v>
@@ -1938,7 +1938,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>46</v>
@@ -1968,7 +1968,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>46</v>
@@ -1998,7 +1998,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>51</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>46</v>
@@ -2028,7 +2028,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>54</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>53</v>
@@ -2058,7 +2058,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>56</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>53</v>
@@ -2088,7 +2088,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>53</v>
@@ -2118,7 +2118,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>59</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>53</v>
@@ -2148,7 +2148,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>60</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>53</v>
@@ -2178,7 +2178,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>62</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>61</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>53</v>
@@ -2208,7 +2208,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>63</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>61</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>53</v>
@@ -2238,7 +2238,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>64</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>53</v>
@@ -2268,7 +2268,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>66</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>65</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>53</v>
@@ -2298,7 +2298,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>67</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>65</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>53</v>
@@ -2328,7 +2328,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>68</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>69</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>53</v>
@@ -2358,7 +2358,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>70</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>53</v>
@@ -2388,7 +2388,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>71</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>53</v>
@@ -2418,7 +2418,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>74</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>72</v>
@@ -2448,15 +2448,15 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>78</v>
@@ -2478,15 +2478,15 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>78</v>
@@ -2508,15 +2508,15 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>78</v>
@@ -2538,15 +2538,15 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>78</v>
@@ -2568,7 +2568,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>82</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>83</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>78</v>
@@ -2598,7 +2598,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>84</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>85</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>78</v>
@@ -2628,7 +2628,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>86</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>87</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>78</v>
@@ -2658,7 +2658,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>88</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>89</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>78</v>
@@ -2688,7 +2688,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>90</v>
       </c>
@@ -2718,15 +2718,15 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>78</v>
@@ -2748,15 +2748,15 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>78</v>
@@ -2778,15 +2778,15 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>78</v>
@@ -2808,15 +2808,15 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>78</v>
@@ -2838,15 +2838,15 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>78</v>
@@ -2868,15 +2868,15 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>78</v>
@@ -2898,15 +2898,15 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>78</v>
@@ -2928,15 +2928,15 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>78</v>
@@ -2958,7 +2958,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>101</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>102</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>78</v>
@@ -2988,7 +2988,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>104</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>102</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>78</v>
@@ -3018,7 +3018,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>103</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>102</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>78</v>
@@ -3048,7 +3048,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>105</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>106</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>78</v>
@@ -3078,15 +3078,15 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>78</v>
@@ -3108,15 +3108,15 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>78</v>
@@ -3138,15 +3138,15 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>78</v>
@@ -3165,15 +3165,15 @@
       </c>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>78</v>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>112</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>113</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>78</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>114</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>113</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>78</v>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>115</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>113</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>78</v>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>116</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>117</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>78</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>118</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>117</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>78</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>119</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>120</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>78</v>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>121</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>120</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>78</v>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>122</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>123</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>78</v>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>126</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>127</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>125</v>
@@ -3443,7 +3443,7 @@
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>128</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>127</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>125</v>
@@ -3479,7 +3479,7 @@
       <c r="S70" s="3"/>
       <c r="T70"/>
     </row>
-    <row r="71" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>130</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>127</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>125</v>
@@ -3515,7 +3515,7 @@
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
     </row>
-    <row r="72" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>132</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>124</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>125</v>
@@ -3551,7 +3551,7 @@
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
     </row>
-    <row r="73" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>133</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>127</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>125</v>
@@ -3587,7 +3587,7 @@
       <c r="S73" s="3"/>
       <c r="T73" s="3"/>
     </row>
-    <row r="74" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="87" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>134</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>124</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>125</v>
@@ -3623,7 +3623,7 @@
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
     </row>
-    <row r="75" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>135</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>127</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>125</v>
@@ -3659,7 +3659,7 @@
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
     </row>
-    <row r="76" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>136</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>137</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>138</v>
@@ -3695,7 +3695,7 @@
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
     </row>
-    <row r="77" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>139</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>137</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>138</v>
@@ -3731,7 +3731,7 @@
       <c r="S77" s="3"/>
       <c r="T77" s="3"/>
     </row>
-    <row r="78" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>140</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>137</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>138</v>
@@ -3767,7 +3767,7 @@
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
     </row>
-    <row r="79" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>141</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>137</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>138</v>
@@ -3803,7 +3803,7 @@
       <c r="S79" s="3"/>
       <c r="T79" s="3"/>
     </row>
-    <row r="80" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>142</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>143</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>138</v>
@@ -3839,7 +3839,7 @@
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
     </row>
-    <row r="81" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>144</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>145</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>138</v>
@@ -3875,7 +3875,7 @@
       <c r="S81" s="3"/>
       <c r="T81" s="3"/>
     </row>
-    <row r="82" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>146</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>145</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>138</v>
@@ -3911,7 +3911,7 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
     </row>
-    <row r="83" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>147</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>145</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>138</v>
@@ -3947,7 +3947,7 @@
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
     </row>
-    <row r="84" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>148</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>149</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>138</v>
@@ -3982,7 +3982,7 @@
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
     </row>
-    <row r="85" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="87" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>150</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>151</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>138</v>
@@ -4020,7 +4020,7 @@
       <c r="S85" s="3"/>
       <c r="T85" s="3"/>
     </row>
-    <row r="86" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>153</v>
       </c>
@@ -4058,7 +4058,7 @@
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
     </row>
-    <row r="87" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>155</v>
       </c>
@@ -4096,7 +4096,7 @@
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
     </row>
-    <row r="88" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>158</v>
       </c>
@@ -4134,15 +4134,15 @@
       <c r="S88" s="3"/>
       <c r="T88" s="3"/>
     </row>
-    <row r="89" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>157</v>
@@ -4172,15 +4172,15 @@
       <c r="S89" s="3"/>
       <c r="T89" s="3"/>
     </row>
-    <row r="90" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>161</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>157</v>
@@ -4210,15 +4210,15 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
     </row>
-    <row r="91" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>162</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>157</v>
@@ -4248,15 +4248,15 @@
       <c r="S91" s="3"/>
       <c r="T91" s="3"/>
     </row>
-    <row r="92" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>163</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>157</v>
@@ -4286,15 +4286,15 @@
       <c r="S92" s="3"/>
       <c r="T92" s="3"/>
     </row>
-    <row r="93" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>157</v>
@@ -4324,15 +4324,15 @@
       <c r="S93" s="3"/>
       <c r="T93" s="3"/>
     </row>
-    <row r="94" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>157</v>
@@ -4362,7 +4362,7 @@
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
     </row>
-    <row r="95" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>166</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>167</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>157</v>
@@ -4389,15 +4389,15 @@
       </c>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>157</v>
@@ -4416,15 +4416,15 @@
       </c>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>169</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>157</v>
@@ -4443,15 +4443,15 @@
       </c>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>170</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>157</v>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>172</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>173</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>173</v>
@@ -4496,7 +4496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>174</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>175</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>173</v>
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>176</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>177</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>177</v>
@@ -4548,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>178</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>177</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>177</v>
@@ -4574,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>179</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>180</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>180</v>
@@ -4600,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>181</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>182</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>182</v>
@@ -4626,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>183</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>184</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>184</v>
@@ -4652,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>185</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>184</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>184</v>
@@ -4678,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>186</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>184</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>184</v>
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>187</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>190</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>191</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>193</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>192</v>
@@ -4782,15 +4782,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>72</v>
@@ -4808,21 +4808,21 @@
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F112" s="3">
         <v>10</v>
@@ -4834,15 +4834,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>72</v>
@@ -4860,21 +4860,21 @@
         <v>107</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="C114" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F114" s="3">
         <v>12</v>
@@ -4886,15 +4886,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>72</v>
@@ -4912,21 +4912,21 @@
         <v>107</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F116" s="1">
         <v>12</v>
@@ -4938,15 +4938,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>152</v>
@@ -4962,21 +4962,21 @@
       </c>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>198</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F118" s="1">
         <v>10</v>
@@ -4986,15 +4986,15 @@
       </c>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>152</v>
@@ -5010,15 +5010,15 @@
       </c>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>157</v>
@@ -5034,21 +5034,21 @@
       </c>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>200</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F121" s="1">
         <v>10</v>
@@ -5058,18 +5058,18 @@
       </c>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>107</v>
@@ -5082,18 +5082,18 @@
       </c>
       <c r="H122" s="10"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="C123" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>107</v>
@@ -5106,18 +5106,18 @@
       </c>
       <c r="H123" s="10"/>
     </row>
-    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>107</v>
@@ -5130,367 +5130,367 @@
       </c>
       <c r="H124" s="10"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B160" s="2"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B162" s="2"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B163" s="2"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B164" s="2"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B165" s="2"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B169" s="2"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B170" s="2"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B171" s="2"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B172" s="2"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B173" s="2"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B174" s="2"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B175" s="2"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B176" s="2"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B177" s="2"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B178" s="2"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B179" s="2"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B180" s="2"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B181" s="2"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B182" s="2"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B183" s="2"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B184" s="2"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B185" s="2"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B186" s="2"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B187" s="2"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B188" s="2"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B189" s="2"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B190" s="2"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B191" s="2"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B192" s="2"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B193" s="2"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B194" s="2"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B195" s="2"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B196" s="2"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B197" s="2"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B198" s="2"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B199" s="2"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B200" s="2"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B201" s="2"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B202" s="2"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B203" s="2"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B204" s="2"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B205" s="2"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B206" s="2"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B207" s="2"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B208" s="2"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B209" s="2"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B210" s="2"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B211" s="2"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B212" s="2"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B213" s="2"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B214" s="2"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B215" s="2"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B216" s="2"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B217" s="2"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B218" s="2"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B219" s="2"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B220" s="2"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B221" s="2"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B222" s="2"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B223" s="2"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B224" s="2"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B225" s="2"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B226" s="2"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B227" s="2"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B228" s="2"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B229" s="2"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B230" s="2"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B231" s="2"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B232" s="2"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B233" s="2"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B234" s="2"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B235" s="2"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B236" s="2"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B237" s="2"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B238" s="2"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B239" s="2"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B240" s="2"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B241" s="2"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B242" s="2"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B243" s="2"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B244" s="2"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B245" s="2"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B246" s="2"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B247" s="2"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B248" s="2"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B249" s="2"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B250" s="2"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B251" s="2"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B252" s="2"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B253" s="2"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B254" s="2"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B255" s="2"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B256" s="2"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B257" s="2"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B258" s="2"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B259" s="2"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B260" s="2"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B261" s="2"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B262" s="2"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B263" s="2"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B264" s="2"/>
     </row>
   </sheetData>
@@ -5500,6 +5500,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100962AEF5458354643B01AB483C27D3CE7" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e580259eb01ed83afbb9f9c94c4917f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="363a048f-a4db-4454-84cd-aeff436539b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5c6256e4731df10195077f570471999a" ns3:_="">
     <xsd:import namespace="363a048f-a4db-4454-84cd-aeff436539b2"/>
@@ -5637,35 +5652,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852E8167-9EFF-4695-B81D-D7CB7BB893A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84CC88C3-0CB4-495D-9F44-C0C80956A6C7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="363a048f-a4db-4454-84cd-aeff436539b2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5687,9 +5677,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84CC88C3-0CB4-495D-9F44-C0C80956A6C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852E8167-9EFF-4695-B81D-D7CB7BB893A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="363a048f-a4db-4454-84cd-aeff436539b2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CoursesFinal.xlsx
+++ b/CoursesFinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fence\Desktop\Computer Science\CoursesSummative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D1E580-306E-4968-B036-44F3F32DDB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F67720-C434-45BF-A09D-6A2C50C06333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4B1F999D-2B31-4EBB-86BB-F68812B9D625}"/>
   </bookViews>
@@ -785,9 +785,6 @@
     <t>chemistry, elements, compounds, reactions, bonding, molecules, laboratory, balancing, moles</t>
   </si>
   <si>
-    <t>earth science, space science, geology, astronomy, atmosphere, planets, universe</t>
-  </si>
-  <si>
     <t>Physics</t>
   </si>
   <si>
@@ -930,6 +927,9 @@
   </si>
   <si>
     <t>exercise, physiology, anatomy, biomechanics, research, performance</t>
+  </si>
+  <si>
+    <t>earth, space geology, astronomy, atmosphere, planets, universe</t>
   </si>
 </sst>
 </file>
@@ -1380,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D51743-F100-4C15-8601-ED56FE5360A4}">
   <dimension ref="A1:T264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1466,7 +1466,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
@@ -1646,7 +1646,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -1706,7 +1706,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>28</v>
@@ -1796,7 +1796,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
@@ -1946,7 +1946,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>46</v>
@@ -1976,7 +1976,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>46</v>
@@ -2006,7 +2006,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>46</v>
@@ -3811,7 +3811,7 @@
         <v>143</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>138</v>
@@ -3990,7 +3990,7 @@
         <v>151</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>138</v>
@@ -4362,7 +4362,7 @@
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
     </row>
-    <row r="95" spans="1:20" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>166</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>167</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>157</v>
@@ -4394,10 +4394,10 @@
         <v>168</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>157</v>
@@ -4421,10 +4421,10 @@
         <v>169</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>157</v>
@@ -4448,10 +4448,10 @@
         <v>170</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>157</v>
@@ -4478,7 +4478,7 @@
         <v>173</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>173</v>
@@ -4504,7 +4504,7 @@
         <v>175</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>173</v>
@@ -4530,7 +4530,7 @@
         <v>177</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>177</v>
@@ -4556,7 +4556,7 @@
         <v>177</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>177</v>
@@ -4582,7 +4582,7 @@
         <v>180</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>180</v>
@@ -4608,7 +4608,7 @@
         <v>182</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>182</v>
@@ -4634,7 +4634,7 @@
         <v>184</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>184</v>
@@ -4660,7 +4660,7 @@
         <v>184</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>184</v>
@@ -4686,7 +4686,7 @@
         <v>184</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>184</v>
@@ -4764,7 +4764,7 @@
         <v>193</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>192</v>
@@ -4784,13 +4784,13 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>72</v>
@@ -4813,16 +4813,16 @@
         <v>73</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F112" s="3">
         <v>10</v>
@@ -4836,13 +4836,13 @@
     </row>
     <row r="113" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>72</v>
@@ -4862,19 +4862,19 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F114" s="3">
         <v>12</v>
@@ -4888,13 +4888,13 @@
     </row>
     <row r="115" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>72</v>
@@ -4914,19 +4914,19 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F116" s="1">
         <v>12</v>
@@ -4940,13 +4940,13 @@
     </row>
     <row r="117" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="C117" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>152</v>
@@ -4967,16 +4967,16 @@
         <v>198</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F118" s="1">
         <v>10</v>
@@ -4991,10 +4991,10 @@
         <v>199</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>152</v>
@@ -5012,13 +5012,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="C120" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>157</v>
@@ -5039,16 +5039,16 @@
         <v>200</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F121" s="1">
         <v>10</v>
@@ -5060,16 +5060,16 @@
     </row>
     <row r="122" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>107</v>
@@ -5084,16 +5084,16 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="D123" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>107</v>
@@ -5108,16 +5108,16 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="D124" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>107</v>
@@ -5500,21 +5500,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100962AEF5458354643B01AB483C27D3CE7" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e580259eb01ed83afbb9f9c94c4917f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="363a048f-a4db-4454-84cd-aeff436539b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5c6256e4731df10195077f570471999a" ns3:_="">
     <xsd:import namespace="363a048f-a4db-4454-84cd-aeff436539b2"/>
@@ -5652,10 +5637,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84CC88C3-0CB4-495D-9F44-C0C80956A6C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852E8167-9EFF-4695-B81D-D7CB7BB893A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="363a048f-a4db-4454-84cd-aeff436539b2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5677,19 +5687,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852E8167-9EFF-4695-B81D-D7CB7BB893A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84CC88C3-0CB4-495D-9F44-C0C80956A6C7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="363a048f-a4db-4454-84cd-aeff436539b2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>